--- a/documentation-generator/vocab_csv/dpv-pd.xlsx
+++ b/documentation-generator/vocab_csv/dpv-pd.xlsx
@@ -9742,6 +9742,7 @@
     <col customWidth="1" min="3" max="3" width="54.25"/>
     <col customWidth="1" min="4" max="4" width="61.63"/>
     <col customWidth="1" min="10" max="10" width="67.5"/>
+    <col customWidth="1" min="14" max="14" width="62.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
